--- a/biology/Botanique/Celastraceae/Celastraceae.xlsx
+++ b/biology/Botanique/Celastraceae/Celastraceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Celastraceae (Célastracées) regroupe des plantes dicotylédones. Selon Watson &amp; Dallwitz elle comprend 850 espèces réparties entre 74 et 87 genres.
 Ce sont des arbres, des arbustes ou des lianes, des régions tempérées à tropicales. En France, c'est la famille du Fusain (Euonymus europaeus).
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Celastrus dérivé du grec κηλάστρα / kêlastra (« houx, bidon »), nom donné par Théophraste (371 -  288 av. J.-C.], philosophe, botaniste et naturaliste grec, à un arbuste à feuillage persistant portant des fruits en hiver, probablement un houx Ilex[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Celastrus dérivé du grec κηλάστρα / kêlastra (« houx, bidon »), nom donné par Théophraste (371 -  288 av. J.-C.], philosophe, botaniste et naturaliste grec, à un arbuste à feuillage persistant portant des fruits en hiver, probablement un houx Ilex.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification phylogénétique APG (1998)[2] et classification phylogénétique APG II (2003)[3] situent la divergence de cette famille à la base des Fabidées (Eurosids I). La famille est augmentée si l'on considère que toutes les Hippocratéacées lui appartiennent. Il faut y ajouter le genre Brexia issu de la famille des Brexiacées et les genres Acanthothamnus et Canotia issus des Canotiacées.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification phylogénétique APG (1998) et classification phylogénétique APG II (2003) situent la divergence de cette famille à la base des Fabidées (Eurosids I). La famille est augmentée si l'on considère que toutes les Hippocratéacées lui appartiennent. Il faut y ajouter le genre Brexia issu de la famille des Brexiacées et les genres Acanthothamnus et Canotia issus des Canotiacées.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Sous-familles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Celastroideae
 Hippocrateoideae
@@ -608,10 +626,12 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification phylogénétique APG III (2009)[4] inclut dans cette famille les genres précédemment placés dans les familles Lepuropetalaceae, Parnassiaceae, Pottingeriaceae. Les genres Lepuropetalon, Parnassia et Pottingeria pour être précis.
-Selon NCBI  (4 mai 2010)[5] (Plus conforme à APGIII puisqu'il incorpore les genres Lepuropetalon, Parnassia et Pottingeria anciennement dans Lepuropetalaceae, Parnassiaceae, Pottingeriaceae) :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification phylogénétique APG III (2009) inclut dans cette famille les genres précédemment placés dans les familles Lepuropetalaceae, Parnassiaceae, Pottingeriaceae. Les genres Lepuropetalon, Parnassia et Pottingeria pour être précis.
+Selon NCBI  (4 mai 2010) (Plus conforme à APGIII puisqu'il incorpore les genres Lepuropetalon, Parnassia et Pottingeria anciennement dans Lepuropetalaceae, Parnassiaceae, Pottingeriaceae) :
 Acanthothamnus (en)
 Allocassine (en)
 Apatophyllum (en)
@@ -686,7 +706,7 @@
 Tripterygium
 Wimmeria (en)
 Zinowiewia (en)
-Selon DELTA Angio           (4 mai 2010)[6] :
+Selon DELTA Angio           (4 mai 2010) :
 Allocassine
 Anthodon
 Apatophyllum
@@ -774,7 +794,7 @@
 Wimmeria
 Xylonymus
 Zinowiewia
-Selon ITIS      (4 mai 2010)[7] :
+Selon ITIS      (4 mai 2010) :
 Canotia  Torr.
 Cassine  L.
 Catha  Forsskal ex Scop.
@@ -793,8 +813,43 @@
 Schaefferia
 Schaefferia  Jacq.
 Torralbasia  Krug &amp; Urban
-Genres comportant des espèces fossiles
-Selon Paleobiology Database (site visité le 12 janvier 2023), la famille compte des espèces fossiles dans les genres suivants:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Celastraceae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Celastraceae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Genres comportant des espèces fossiles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database (site visité le 12 janvier 2023), la famille compte des espèces fossiles dans les genres suivants:
 Asterocelastrus
 Canticarpum
 Cathispermum
